--- a/Results/VCG-Webgoat-NET.xlsx
+++ b/Results/VCG-Webgoat-NET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Winter 2020\CMPUT 664\Project\Progress\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syeda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A98260AA-4AB9-424E-BD14-24392AE0A9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC77B7-21E9-4818-AE81-BDB9A12B180B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VCG-Webgoat-NET" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="147">
   <si>
     <t>Suspicious Comment</t>
   </si>
@@ -423,13 +423,55 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Maybe</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>True Positives by Coverity</t>
+  </si>
+  <si>
+    <t>Total true positives</t>
+  </si>
+  <si>
+    <t>False Positives</t>
+  </si>
+  <si>
+    <t>Backup Folder</t>
+  </si>
+  <si>
+    <t>WebGoatCoins/CustomerLogin.aspx</t>
+  </si>
+  <si>
+    <t>WebGoatCoins/Orders.aspx.cs</t>
+  </si>
+  <si>
+    <t>Content/ReadlineDoS.aspx.cs</t>
+  </si>
+  <si>
+    <t>Content/EncryptVSEncode.aspx.cs</t>
+  </si>
+  <si>
+    <t>WebGoatCoins/ProductDetails.aspx</t>
+  </si>
+  <si>
+    <t>WebGoat/ProxySetup.aspx.cs</t>
+  </si>
+  <si>
+    <t>Content/PathManipulation.aspx.cs</t>
+  </si>
+  <si>
+    <t>Content/UploadPathManipulation.aspx.cs</t>
+  </si>
+  <si>
+    <t>WebGoat/Content/ReflectedXSS.aspx.cs</t>
+  </si>
+  <si>
+    <t>True Positives by VCG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +794,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -913,9 +961,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1270,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:I109"/>
   <sheetViews>
@@ -4175,7 +4224,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I109">
+  <autoFilter ref="A2:I109" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="Potential SQL Injection"/>
@@ -4190,11 +4239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4202,9 +4251,11 @@
     <col min="1" max="1" width="48.77734375" customWidth="1"/>
     <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -4215,40 +4266,43 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -4259,7 +4313,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -4269,8 +4323,20 @@
       <c r="C6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -4278,50 +4344,56 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>122</v>
       </c>
@@ -4397,19 +4469,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -4420,20 +4495,79 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
